--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.068078666666667</v>
+        <v>1.668911666666667</v>
       </c>
       <c r="H2">
-        <v>6.204236</v>
+        <v>5.006735</v>
       </c>
       <c r="I2">
-        <v>0.04745723096963421</v>
+        <v>0.02533989316516187</v>
       </c>
       <c r="J2">
-        <v>0.0474572309696342</v>
+        <v>0.02533989316516188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N2">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O2">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P2">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q2">
-        <v>12.14400678946622</v>
+        <v>6.867029668345555</v>
       </c>
       <c r="R2">
-        <v>109.296061105196</v>
+        <v>61.80326701510999</v>
       </c>
       <c r="S2">
-        <v>0.003710886700465448</v>
+        <v>0.001214799123881715</v>
       </c>
       <c r="T2">
-        <v>0.003710886700465447</v>
+        <v>0.001214799123881715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.068078666666667</v>
+        <v>1.668911666666667</v>
       </c>
       <c r="H3">
-        <v>6.204236</v>
+        <v>5.006735</v>
       </c>
       <c r="I3">
-        <v>0.04745723096963421</v>
+        <v>0.02533989316516187</v>
       </c>
       <c r="J3">
-        <v>0.0474572309696342</v>
+        <v>0.02533989316516188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
         <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q3">
-        <v>123.3124980471476</v>
+        <v>99.51152727105888</v>
       </c>
       <c r="R3">
-        <v>1109.812482424328</v>
+        <v>895.6037454395299</v>
       </c>
       <c r="S3">
-        <v>0.03768103204629752</v>
+        <v>0.01760390182996521</v>
       </c>
       <c r="T3">
-        <v>0.03768103204629751</v>
+        <v>0.01760390182996521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.068078666666667</v>
+        <v>1.668911666666667</v>
       </c>
       <c r="H4">
-        <v>6.204236</v>
+        <v>5.006735</v>
       </c>
       <c r="I4">
-        <v>0.04745723096963421</v>
+        <v>0.02533989316516187</v>
       </c>
       <c r="J4">
-        <v>0.0474572309696342</v>
+        <v>0.02533989316516188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N4">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q4">
-        <v>19.37993554287244</v>
+        <v>36.1337311070711</v>
       </c>
       <c r="R4">
-        <v>174.419419885852</v>
+        <v>325.20357996364</v>
       </c>
       <c r="S4">
-        <v>0.005921994800291444</v>
+        <v>0.006392170561573084</v>
       </c>
       <c r="T4">
-        <v>0.005921994800291443</v>
+        <v>0.006392170561573085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.068078666666667</v>
+        <v>1.668911666666667</v>
       </c>
       <c r="H5">
-        <v>6.204236</v>
+        <v>5.006735</v>
       </c>
       <c r="I5">
-        <v>0.04745723096963421</v>
+        <v>0.02533989316516187</v>
       </c>
       <c r="J5">
-        <v>0.0474572309696342</v>
+        <v>0.02533989316516188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N5">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O5">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P5">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q5">
-        <v>0.4690112884986667</v>
+        <v>0.7293349815772222</v>
       </c>
       <c r="R5">
-        <v>4.221101596488</v>
+        <v>6.564014834195</v>
       </c>
       <c r="S5">
-        <v>0.0001433174225797979</v>
+        <v>0.000129021649741868</v>
       </c>
       <c r="T5">
-        <v>0.0001433174225797979</v>
+        <v>0.000129021649741868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>80.837788</v>
       </c>
       <c r="I6">
-        <v>0.6183416582138921</v>
+        <v>0.409133080066751</v>
       </c>
       <c r="J6">
-        <v>0.618341658213892</v>
+        <v>0.4091330800667511</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N6">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O6">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P6">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q6">
-        <v>158.2297395388298</v>
+        <v>110.8737507616098</v>
       </c>
       <c r="R6">
-        <v>1424.067655849468</v>
+        <v>997.863756854488</v>
       </c>
       <c r="S6">
-        <v>0.04835081585939758</v>
+        <v>0.01961391486446473</v>
       </c>
       <c r="T6">
-        <v>0.04835081585939756</v>
+        <v>0.01961391486446473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>80.837788</v>
       </c>
       <c r="I7">
-        <v>0.6183416582138921</v>
+        <v>0.409133080066751</v>
       </c>
       <c r="J7">
-        <v>0.618341658213892</v>
+        <v>0.4091330800667511</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
         <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q7">
         <v>1606.694132022981</v>
       </c>
       <c r="R7">
-        <v>14460.24718820683</v>
+        <v>14460.24718820682</v>
       </c>
       <c r="S7">
-        <v>0.490963154879957</v>
+        <v>0.2842292400343816</v>
       </c>
       <c r="T7">
-        <v>0.4909631548799569</v>
+        <v>0.2842292400343817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>80.837788</v>
       </c>
       <c r="I8">
-        <v>0.6183416582138921</v>
+        <v>0.409133080066751</v>
       </c>
       <c r="J8">
-        <v>0.618341658213892</v>
+        <v>0.4091330800667511</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N8">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q8">
-        <v>252.5099175576796</v>
+        <v>583.4083279587235</v>
       </c>
       <c r="R8">
-        <v>2272.589258019116</v>
+        <v>5250.674951628512</v>
       </c>
       <c r="S8">
-        <v>0.07716034016163507</v>
+        <v>0.1032067662291465</v>
       </c>
       <c r="T8">
-        <v>0.07716034016163506</v>
+        <v>0.1032067662291466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>80.837788</v>
       </c>
       <c r="I9">
-        <v>0.6183416582138921</v>
+        <v>0.409133080066751</v>
       </c>
       <c r="J9">
-        <v>0.618341658213892</v>
+        <v>0.4091330800667511</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N9">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O9">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P9">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q9">
-        <v>6.110959529789334</v>
+        <v>11.77570345179511</v>
       </c>
       <c r="R9">
-        <v>54.998635768104</v>
+        <v>105.981331066156</v>
       </c>
       <c r="S9">
-        <v>0.001867347312902365</v>
+        <v>0.002083158938758169</v>
       </c>
       <c r="T9">
-        <v>0.001867347312902364</v>
+        <v>0.002083158938758169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.36831566666667</v>
+        <v>36.85439666666667</v>
       </c>
       <c r="H10">
-        <v>43.104947</v>
+        <v>110.56319</v>
       </c>
       <c r="I10">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750508</v>
       </c>
       <c r="J10">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750509</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N10">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O10">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P10">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q10">
-        <v>84.37247858198523</v>
+        <v>151.6438768892156</v>
       </c>
       <c r="R10">
-        <v>759.3523072378671</v>
+        <v>1364.79489200294</v>
       </c>
       <c r="S10">
-        <v>0.02578199387427687</v>
+        <v>0.02682627827228075</v>
       </c>
       <c r="T10">
-        <v>0.02578199387427686</v>
+        <v>0.02682627827228076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.36831566666667</v>
+        <v>36.85439666666667</v>
       </c>
       <c r="H11">
-        <v>43.104947</v>
+        <v>110.56319</v>
       </c>
       <c r="I11">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750508</v>
       </c>
       <c r="J11">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
         <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q11">
-        <v>856.7338013511896</v>
+        <v>2197.502343715069</v>
       </c>
       <c r="R11">
-        <v>7710.604212160708</v>
+        <v>19777.52109343562</v>
       </c>
       <c r="S11">
-        <v>0.2617951491949945</v>
+        <v>0.3887450689456884</v>
       </c>
       <c r="T11">
-        <v>0.2617951491949945</v>
+        <v>0.3887450689456884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.36831566666667</v>
+        <v>36.85439666666667</v>
       </c>
       <c r="H12">
-        <v>43.104947</v>
+        <v>110.56319</v>
       </c>
       <c r="I12">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750508</v>
       </c>
       <c r="J12">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750509</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N12">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q12">
-        <v>134.6452801664754</v>
+        <v>797.9372940249509</v>
       </c>
       <c r="R12">
-        <v>1211.807521498279</v>
+        <v>7181.43564622456</v>
       </c>
       <c r="S12">
-        <v>0.04114402998223122</v>
+        <v>0.1411576143557851</v>
       </c>
       <c r="T12">
-        <v>0.04114402998223122</v>
+        <v>0.1411576143557851</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.36831566666667</v>
+        <v>36.85439666666667</v>
       </c>
       <c r="H13">
-        <v>43.104947</v>
+        <v>110.56319</v>
       </c>
       <c r="I13">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750508</v>
       </c>
       <c r="J13">
-        <v>0.3297168943465144</v>
+        <v>0.5595781327750509</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N13">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O13">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P13">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q13">
-        <v>3.258532836780667</v>
+        <v>16.10582588089222</v>
       </c>
       <c r="R13">
-        <v>29.326795531026</v>
+        <v>144.95243292803</v>
       </c>
       <c r="S13">
-        <v>0.0009957212950117938</v>
+        <v>0.002849171201296574</v>
       </c>
       <c r="T13">
-        <v>0.0009957212950117936</v>
+        <v>0.002849171201296574</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.195412</v>
+        <v>0.3918003333333333</v>
       </c>
       <c r="H14">
-        <v>0.586236</v>
+        <v>1.175401</v>
       </c>
       <c r="I14">
-        <v>0.004484216469959312</v>
+        <v>0.005948893993036266</v>
       </c>
       <c r="J14">
-        <v>0.004484216469959311</v>
+        <v>0.005948893993036267</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N14">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O14">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P14">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q14">
-        <v>1.147482778577333</v>
+        <v>1.612131167158444</v>
       </c>
       <c r="R14">
-        <v>10.327345007196</v>
+        <v>14.509180504426</v>
       </c>
       <c r="S14">
-        <v>0.0003506403327878021</v>
+        <v>0.0002851910686324903</v>
       </c>
       <c r="T14">
-        <v>0.000350640332787802</v>
+        <v>0.0002851910686324903</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.195412</v>
+        <v>0.3918003333333333</v>
       </c>
       <c r="H15">
-        <v>0.586236</v>
+        <v>1.175401</v>
       </c>
       <c r="I15">
-        <v>0.004484216469959312</v>
+        <v>0.005948893993036266</v>
       </c>
       <c r="J15">
-        <v>0.004484216469959311</v>
+        <v>0.005948893993036267</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N15">
         <v>178.879798</v>
       </c>
       <c r="O15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q15">
-        <v>11.65175302892533</v>
+        <v>23.36172149433311</v>
       </c>
       <c r="R15">
-        <v>104.865777260328</v>
+        <v>210.255493448998</v>
       </c>
       <c r="S15">
-        <v>0.003560466994275084</v>
+        <v>0.004132761932645314</v>
       </c>
       <c r="T15">
-        <v>0.003560466994275084</v>
+        <v>0.004132761932645315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.195412</v>
+        <v>0.3918003333333333</v>
       </c>
       <c r="H16">
-        <v>0.586236</v>
+        <v>1.175401</v>
       </c>
       <c r="I16">
-        <v>0.004484216469959312</v>
+        <v>0.005948893993036266</v>
       </c>
       <c r="J16">
-        <v>0.004484216469959311</v>
+        <v>0.005948893993036267</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N16">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q16">
-        <v>1.831203051094667</v>
+        <v>8.482898271424887</v>
       </c>
       <c r="R16">
-        <v>16.480827459852</v>
+        <v>76.34608444282398</v>
       </c>
       <c r="S16">
-        <v>0.0005595671318343879</v>
+        <v>0.001500651356671277</v>
       </c>
       <c r="T16">
-        <v>0.0005595671318343878</v>
+        <v>0.001500651356671277</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.195412</v>
+        <v>0.3918003333333333</v>
       </c>
       <c r="H17">
-        <v>0.586236</v>
+        <v>1.175401</v>
       </c>
       <c r="I17">
-        <v>0.004484216469959312</v>
+        <v>0.005948893993036266</v>
       </c>
       <c r="J17">
-        <v>0.004484216469959311</v>
+        <v>0.005948893993036267</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N17">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O17">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P17">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q17">
-        <v>0.044316705832</v>
+        <v>0.1712215778707778</v>
       </c>
       <c r="R17">
-        <v>0.398850352488</v>
+        <v>1.540994200837</v>
       </c>
       <c r="S17">
-        <v>1.354201106203736E-05</v>
+        <v>3.028963508718583E-05</v>
       </c>
       <c r="T17">
-        <v>1.354201106203735E-05</v>
+        <v>3.028963508718584E-05</v>
       </c>
     </row>
   </sheetData>
